--- a/Logi2_Plantilla_Items.xlsx
+++ b/Logi2_Plantilla_Items.xlsx
@@ -1,56 +1,180 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingen\Documents\APPS\Logi 2\0.7\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ITEMS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INSTRUCCIONES" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ITEMS" sheetId="1" r:id="rId1"/>
+    <sheet name="INSTRUCCIONES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>Plantilla oficial Logi / Logi2 para cargar listado de ítems.</t>
+  </si>
+  <si>
+    <t>Reglas:</t>
+  </si>
+  <si>
+    <t>1) No cambies el nombre de las columnas (ITEM, DESCRIPCION).</t>
+  </si>
+  <si>
+    <t>2) Deja ITEM como código o identificador (puede ser numérico o alfanumérico).</t>
+  </si>
+  <si>
+    <t>3) DESCRIPCION: texto libre.</t>
+  </si>
+  <si>
+    <t>4) No uses celdas combinadas, imágenes ni tablas de Excel.</t>
+  </si>
+  <si>
+    <t>5) El listado se carga por PROYECTO (cada proyecto puede tener su propio archivo).</t>
+  </si>
+  <si>
+    <t>Cómo cargar en la app:</t>
+  </si>
+  <si>
+    <t>• Abre Logi2 → ⚙️ Configuración → Ítems del proyecto → ⬆️ Cargar listado.</t>
+  </si>
+  <si>
+    <t>Tip:</t>
+  </si>
+  <si>
+    <t>• Si tu listado es enorme, igual funciona: la app solo usa ITEM y DESCRIPCION.</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>REPLANTEO GENERAL BÁSICO</t>
+  </si>
+  <si>
+    <t>DEMOLICIÓN PAVIMENTO FLEXIBLE (CARPETA ASFALTICA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXCAVACION </t>
+  </si>
+  <si>
+    <t>EXCAVACION MECANICA EN CONGLOMERADO INCLUYE CARGUE</t>
+  </si>
+  <si>
+    <t>RELLENOS</t>
+  </si>
+  <si>
+    <t>SUBBASE GRANULAR MATERIAL DE RIO SELECCIONADO HASTA 2" INCLUYE ZARANDE,
+CARGUE, CONFORMACION Y COMPACTACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARPETA ASFALTICA </t>
+  </si>
+  <si>
+    <t>RIEGO DE IMPRIMACION CON ASFALTO LIQUIDO</t>
+  </si>
+  <si>
+    <t>MEZCLA DENSA EN CALIENTE TIPO MDC-19 INCLUYE SUMINISTRO, COLOCACIÓN Y COMPACTACIÓN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSPORTE </t>
+  </si>
+  <si>
+    <t>TRANSPORTE DE MEZCLAS ASFALTICAS</t>
+  </si>
+  <si>
+    <t>TRANSPORTE DISPOSICIÓN FINAL DE ESCOMBROS Y SOBRANTES</t>
+  </si>
+  <si>
+    <t>TRANSPORTE DE MATERIAL GRANULAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRELIMINARES </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <color rgb="000B5394"/>
+      <sz val="11"/>
+      <color rgb="FF0B5394"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="14"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="001F4E79"/>
+        <fgColor rgb="FF1F4E79"/>
       </patternFill>
     </fill>
   </fills>
@@ -64,115 +188,66 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="009AA4B2"/>
+        <color rgb="FF9AA4B2"/>
       </left>
       <right style="thin">
-        <color rgb="009AA4B2"/>
+        <color rgb="FF9AA4B2"/>
       </right>
       <top style="thin">
-        <color rgb="009AA4B2"/>
+        <color rgb="FF9AA4B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="009AA4B2"/>
+        <color rgb="FF9AA4B2"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -460,51 +535,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="70" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="111.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ITEM</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>DESCRIPCION</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>1.1.1</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Ejemplo: Excavación manual en zanja</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr"/>
-      <c r="B3" s="3" t="inlineStr"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -512,106 +675,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="110" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="110" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>Plantilla oficial Logi / Logi2 para cargar listado de ítems.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>Reglas:</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>1) No cambies el nombre de las columnas (ITEM, DESCRIPCION).</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>2) Deja ITEM como código o identificador (puede ser numérico o alfanumérico).</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>3) DESCRIPCION: texto libre.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>4) No uses celdas combinadas, imágenes ni tablas de Excel.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>5) El listado se carga por PROYECTO (cada proyecto puede tener su propio archivo).</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Cómo cargar en la app:</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>• Abre Logi2 → ⚙️ Configuración → Ítems del proyecto → ⬆️ Cargar listado.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>Tip:</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>• Si tu listado es enorme, igual funciona: la app solo usa ITEM y DESCRIPCION.</t>
-        </is>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Logi2_Plantilla_Items.xlsx
+++ b/Logi2_Plantilla_Items.xlsx
@@ -1,173 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingen\Documents\APPS\Logi 2\0.7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ITEMS" sheetId="1" r:id="rId1"/>
-    <sheet name="INSTRUCCIONES" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ITEMS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INSTRUCCIONES" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>ITEM</t>
-  </si>
-  <si>
-    <t>DESCRIPCION</t>
-  </si>
-  <si>
-    <t>Plantilla oficial Logi / Logi2 para cargar listado de ítems.</t>
-  </si>
-  <si>
-    <t>Reglas:</t>
-  </si>
-  <si>
-    <t>1) No cambies el nombre de las columnas (ITEM, DESCRIPCION).</t>
-  </si>
-  <si>
-    <t>2) Deja ITEM como código o identificador (puede ser numérico o alfanumérico).</t>
-  </si>
-  <si>
-    <t>3) DESCRIPCION: texto libre.</t>
-  </si>
-  <si>
-    <t>4) No uses celdas combinadas, imágenes ni tablas de Excel.</t>
-  </si>
-  <si>
-    <t>5) El listado se carga por PROYECTO (cada proyecto puede tener su propio archivo).</t>
-  </si>
-  <si>
-    <t>Cómo cargar en la app:</t>
-  </si>
-  <si>
-    <t>• Abre Logi2 → ⚙️ Configuración → Ítems del proyecto → ⬆️ Cargar listado.</t>
-  </si>
-  <si>
-    <t>Tip:</t>
-  </si>
-  <si>
-    <t>• Si tu listado es enorme, igual funciona: la app solo usa ITEM y DESCRIPCION.</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>REPLANTEO GENERAL BÁSICO</t>
-  </si>
-  <si>
-    <t>DEMOLICIÓN PAVIMENTO FLEXIBLE (CARPETA ASFALTICA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXCAVACION </t>
-  </si>
-  <si>
-    <t>EXCAVACION MECANICA EN CONGLOMERADO INCLUYE CARGUE</t>
-  </si>
-  <si>
-    <t>RELLENOS</t>
-  </si>
-  <si>
-    <t>SUBBASE GRANULAR MATERIAL DE RIO SELECCIONADO HASTA 2" INCLUYE ZARANDE,
-CARGUE, CONFORMACION Y COMPACTACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARPETA ASFALTICA </t>
-  </si>
-  <si>
-    <t>RIEGO DE IMPRIMACION CON ASFALTO LIQUIDO</t>
-  </si>
-  <si>
-    <t>MEZCLA DENSA EN CALIENTE TIPO MDC-19 INCLUYE SUMINISTRO, COLOCACIÓN Y COMPACTACIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSPORTE </t>
-  </si>
-  <si>
-    <t>TRANSPORTE DE MEZCLAS ASFALTICAS</t>
-  </si>
-  <si>
-    <t>TRANSPORTE DISPOSICIÓN FINAL DE ESCOMBROS Y SOBRANTES</t>
-  </si>
-  <si>
-    <t>TRANSPORTE DE MATERIAL GRANULAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRELIMINARES </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="FF0B5394"/>
       <sz val="11"/>
-      <color rgb="FF0B5394"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="14"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -205,49 +90,114 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -535,138 +485,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="111.5546875" bestFit="1" customWidth="1"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="60" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>ITEM</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>DESCRIPCION</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>UNIDAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PRELIMINARES </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>REPLANTEO GENERAL BÁSICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DEMOLICIÓN PAVIMENTO FLEXIBLE (CARPETA ASFALTICA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EXCAVACION </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EXCAVACION MECANICA EN CONGLOMERADO INCLUYE CARGUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RELLENOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SUBBASE GRANULAR MATERIAL DE RIO SELECCIONADO HASTA 2" INCLUYE ZARANDE,
+CARGUE, CONFORMACION Y COMPACTACION</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CARPETA ASFALTICA </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RIEGO DE IMPRIMACION CON ASFALTO LIQUIDO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MEZCLA DENSA EN CALIENTE TIPO MDC-19 INCLUYE SUMINISTRO, COLOCACIÓN Y COMPACTACIÓN</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TRANSPORTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TRANSPORTE DE MEZCLAS ASFALTICAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TRANSPORTE DISPOSICIÓN FINAL DE ESCOMBROS Y SOBRANTES</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="inlineStr">
+        <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TRANSPORTE DE MATERIAL GRANULAR</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -675,78 +686,110 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="110" customWidth="1"/>
+    <col width="110" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
+    <row r="1" ht="18" customHeight="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Plantilla oficial Logi / Logi2 para cargar listado de ítems.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>Reglas:</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>1) No cambies el nombre de las columnas (ITEM, DESCRIPCION, UNIDAD).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>2) Deja ITEM como código o identificador (puede ser numérico o alfanumérico).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>3) DESCRIPCION: texto libre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>4) UNIDAD: unidad del ítem (ej: m, m2, m3, und, kg, glb).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>5) No uses celdas combinadas, imágenes ni tablas de Excel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>6) El listado se carga por PROYECTO (cada proyecto puede tener su propio archivo).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Cómo cargar en la app:</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>• Abre Logi2 → ⚙️ Configuración → Ítems del proyecto → ⬆️ Cargar listado.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>Tip:</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>• Si tu listado es enorme, igual funciona: la app usa ITEM, DESCRIPCION y UNIDAD.</t>
+        </is>
       </c>
     </row>
   </sheetData>
